--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +470,13 @@
         <v>0.4236370942601809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3896220582741199</v>
+        <v>0.39515059784095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5068493150684932</v>
+        <v>0.5095890410958904</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3442868390979779</v>
+        <v>0.1260921742598231</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>0.3680905899295752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007070784770552479</v>
+        <v>0.3229440959150463</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5095890410958904</v>
+        <v>0.4986301369863014</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2077604835589122</v>
+        <v>0.1236464331341784</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1068716782553794</v>
+        <v>0.1068716782553811</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.164042234734295</v>
+        <v>0.05922646583528646</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4876712328767123</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2403756412319918</v>
+        <v>0.03685498670703687</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>0.1637602899987155</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2041751823443923</v>
+        <v>-0.05328686233964092</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4712328767123288</v>
+        <v>0.463013698630137</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2107052618170777</v>
+        <v>0.08926497396117311</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>0.09352336924186049</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.06036860454064254</v>
+        <v>0.06118549931727827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4575342465753425</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3167585214148381</v>
+        <v>0.1687731977298044</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>0.1315563974492852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1839345742655532</v>
+        <v>0.2958302621843757</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4383561643835616</v>
+        <v>0.4767123287671233</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2116444788149298</v>
+        <v>0.1186828399835331</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>0.3019524714487187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1481660704581859</v>
+        <v>0.1591742136615893</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5205479452054794</v>
+        <v>0.4904109589041096</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1655021347556158</v>
+        <v>0.09619638813523158</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,792 @@
         <v>0.3514396535313168</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.01851505455885373</v>
+        <v>0.1105090131736767</v>
       </c>
       <c r="D9" t="n">
+        <v>0.4876712328767123</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.09372946075794558</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>INDUSINDBK.NS</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.3129504292924176</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.166274297021549</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4986301369863014</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.03955121586142242</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AXISBANK.NS</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.03732627642474981</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1571713886773067</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1066866511917329</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UPL.NS</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.07676511388281952</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1338265471042273</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4986301369863014</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.03236758963961664</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KOTAKBANK.NS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.03935792770668428</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1404166879016282</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5013698630136987</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.08705551902517768</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MARUTI.NS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2800609362341527</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.214062921846708</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.08719907018368551</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>RELIANCE.NS</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.002864885534514912</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.05065232380871478</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5041095890410959</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.09692319953654159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DRREDDY.NS</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.02331250875824352</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1753390106561753</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5095890410958904</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1537406338571083</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TECHM.NS</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4127226685385296</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2952426196087202</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4575342465753425</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1360587181506744</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ONGC.NS</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5702074148164954</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05555754149250447</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4986301369863014</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1045664625146767</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TATAMOTORS.NS</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1228020313753879</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2584089602061073</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5315068493150685</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0685589913683556</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WIPRO.NS</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5117864196043348</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.2928638786198479</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5013698630136987</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07614256078778033</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HCLTECH.NS</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.576272163056839</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3247434942895222</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4986301369863014</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.07929134684726741</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BAJAJFINSV.NS</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1514578507966327</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1565507858605834</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4904109589041096</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.09245112896423795</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BAJFINANCE.NS</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.1145160417211611</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.04540794784958876</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5260273972602739</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.05307614972927321</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>LT.NS</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.3002872151268315</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3095589472041164</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5013698630136987</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.07071259743242471</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO.NS</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3828657680515207</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.1809504885703164</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5616438356164384</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1007204370287234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NESTLEIND.NS</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.01097699341555298</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2837286870734962</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4520547945205479</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.08586403630948876</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>HDFCLIFE.NS</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.01470015057479074</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.1500698921035878</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5342465753424658</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.07678150318120132</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SUNPHARMA.NS</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.52199839388714</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0506156372745113</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4821917808219178</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1479871639482109</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BRITANNIA.NS</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1174794843839858</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1050359149936124</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0917084121642623</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>M&amp;M.NS</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9502897258238585</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3075435934879715</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.09864653120025561</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TITAN.NS</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.1432802022029085</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.3802634596679644</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.5123287671232877</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.2413233146972346</v>
+      <c r="E31" t="n">
+        <v>0.1374798850797899</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NTPC.NS</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5483270976747011</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.774345641060186</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5150684931506849</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1065857702889462</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CIPLA.NS</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1609395775028328</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.06558848367406397</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.4904109589041096</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1057755667915035</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>EICHERMOT.NS</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5469741818449089</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01766276577385782</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5260273972602739</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0843063194526493</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ITC.NS</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.01786367387643381</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.09075429003683666</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.473972602739726</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.08995617413617084</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>DIVISLAB.NS</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5690865012155061</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3694942326212183</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1869545097474106</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>IOC.NS</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4823715919850989</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.4137766878406066</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5671232876712329</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.07324057374842993</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>COALINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.8490104733694099</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3088623861616091</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4876712328767123</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.09427348226112632</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>TCS.NS</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.226333635137313</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.08648885805623152</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5095890410958904</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.06883273425437277</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ASIANPAINT.NS</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.3156756074377695</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1334353269288357</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5260273972602739</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.06682282502185666</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>HINDUNILVR.NS</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.03619937703224935</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.03660198903434946</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4876712328767123</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.1067255778655755</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>POWERGRID.NS</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7368579155625775</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.368434114110218</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5205479452054794</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.1107437885247442</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>HINDALCO.NS</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2690984390143001</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6883782509718165</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5178082191780822</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.1440249878437182</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BAJAJ-AUTO.NS</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0.8898106728795747</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4987947659628972</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.4794520547945205</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.08143121635145256</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>HDFCBANK.NS</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.03883565092948331</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.009922457248108146</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.4712328767123288</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.09113048189059306</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>INFY.NS</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3859388880005099</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.1132388097391315</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.4602739726027397</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.1789055721882177</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TATASTEEL.NS</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0.1128267335970939</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3250364158977442</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5178082191780822</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.1182444253543649</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BHARTIARTL.NS</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.8756050859911341</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5309299478865822</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1231696703297681</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BPCL.NS</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5905501629851782</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.2278566555538286</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5013698630136987</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.1355174872767292</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ADANIPORTS.NS</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3673001467765926</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.01666256149912698</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.4986301369863014</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.07004361282150053</v>
       </c>
     </row>
   </sheetData>
